--- a/Resultados/no_elemento_a_danar_3.xlsx
+++ b/Resultados/no_elemento_a_danar_3.xlsx
@@ -59,12 +59,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="true"/>
+    <col min="1" max="1" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
